--- a/fuction_ensemble_1/redes-ensemble-s/mse_sup/fixed_results.xlsx
+++ b/fuction_ensemble_1/redes-ensemble-s/mse_sup/fixed_results.xlsx
@@ -603,10 +603,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.9881040697223268</v>
+        <v>0.9881040785830711</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7315502354403222</v>
+        <v>0.7315502414968797</v>
       </c>
       <c r="E3" t="n">
         <v>0.9993332549274105</v>
@@ -618,10 +618,10 @@
         <v>0.9995054705644509</v>
       </c>
       <c r="H3" t="n">
-        <v>0.008297037480673569</v>
+        <v>0.00829703130058288</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1872352734287633</v>
+        <v>0.1872352692045047</v>
       </c>
       <c r="J3" t="n">
         <v>0.0003996201881216082</v>
@@ -633,22 +633,22 @@
         <v>0.0001998100940718898</v>
       </c>
       <c r="M3" t="n">
-        <v>0.02785001968381092</v>
+        <v>0.02784997596046781</v>
       </c>
       <c r="N3" t="n">
-        <v>0.09108807540327971</v>
+        <v>0.09108804147956459</v>
       </c>
       <c r="O3" t="n">
-        <v>1.057100465332832</v>
+        <v>1.057100422801259</v>
       </c>
       <c r="P3" t="n">
-        <v>0.09496588335150756</v>
+        <v>0.09496584798358966</v>
       </c>
       <c r="Q3" t="n">
-        <v>67.5837135158672</v>
+        <v>67.58371500557796</v>
       </c>
       <c r="R3" t="n">
-        <v>102.931112437045</v>
+        <v>102.9311139267558</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
@@ -666,10 +666,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.9993944024119894</v>
+        <v>0.9993944042459202</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7259701840759218</v>
+        <v>0.7259701922098238</v>
       </c>
       <c r="E4" t="n">
         <v>0.9990763660104113</v>
@@ -678,13 +678,13 @@
         <v>0.9996416602977134</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9995994630613463</v>
+        <v>0.9995994645428379</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0004223852837604552</v>
+        <v>0.0004223840046513694</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1911271838749271</v>
+        <v>0.1911271782017862</v>
       </c>
       <c r="J4" t="n">
         <v>9.775623665764826e-05</v>
@@ -693,25 +693,25 @@
         <v>0.000470141779902019</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0002839490082798337</v>
+        <v>0.0002839479580194719</v>
       </c>
       <c r="M4" t="n">
-        <v>0.01332247564857337</v>
+        <v>0.01332245288886495</v>
       </c>
       <c r="N4" t="n">
-        <v>0.02055201410471624</v>
+        <v>0.02055198298586707</v>
       </c>
       <c r="O4" t="n">
-        <v>1.00058137368449</v>
+        <v>1.000581371923917</v>
       </c>
       <c r="P4" t="n">
-        <v>0.02142695589368821</v>
+        <v>0.02142692345004521</v>
       </c>
       <c r="Q4" t="n">
-        <v>113.5391853315228</v>
+        <v>113.5391913881307</v>
       </c>
       <c r="R4" t="n">
-        <v>173.2641007500646</v>
+        <v>173.2641068066725</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
@@ -729,52 +729,52 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.9996172914498807</v>
+        <v>0.9996172921536013</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7415145417505378</v>
+        <v>0.7415145459542748</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9998439760408151</v>
+        <v>0.9998439765073291</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9992090377043504</v>
+        <v>0.9992090347357482</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9997891100548563</v>
+        <v>0.9997891102245245</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0002669271852134482</v>
+        <v>0.0002669266943904085</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1802854829546263</v>
+        <v>0.1802854800226518</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0002321841672727079</v>
+        <v>0.0002321834730385006</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0001113358479914847</v>
+        <v>0.0001113362658519276</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0001717600076320963</v>
+        <v>0.0001717598694452141</v>
       </c>
       <c r="M5" t="n">
-        <v>0.008451596195427702</v>
+        <v>0.008451603885857577</v>
       </c>
       <c r="N5" t="n">
-        <v>0.01633790639015441</v>
+        <v>0.01633789136915803</v>
       </c>
       <c r="O5" t="n">
-        <v>1.000161140442156</v>
+        <v>1.000161140145852</v>
       </c>
       <c r="P5" t="n">
-        <v>0.01703344488931192</v>
+        <v>0.01703342922884063</v>
       </c>
       <c r="Q5" t="n">
-        <v>178.4570693026276</v>
+        <v>178.4570729802109</v>
       </c>
       <c r="R5" t="n">
-        <v>277.1860111169518</v>
+        <v>277.1860147945351</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
@@ -792,52 +792,52 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.9986657905227549</v>
+        <v>0.9986657894554007</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7400856444596361</v>
+        <v>0.7400856411425711</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9979811950818965</v>
+        <v>0.9979811874201762</v>
       </c>
       <c r="F6" t="n">
         <v>0.9995042208385992</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9988430675284068</v>
+        <v>0.9988430640674256</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0009305691762962644</v>
+        <v>0.0009305699207422384</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1812820939049187</v>
+        <v>0.1812820962184672</v>
       </c>
       <c r="J6" t="n">
-        <v>0.00117135584840769</v>
+        <v>0.001171360293909565</v>
       </c>
       <c r="K6" t="n">
         <v>0.000314680992674777</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0007430184205412337</v>
+        <v>0.000743020643292171</v>
       </c>
       <c r="M6" t="n">
-        <v>0.006393260670538486</v>
+        <v>0.006393281332763913</v>
       </c>
       <c r="N6" t="n">
-        <v>0.03050523194955686</v>
+        <v>0.03050524415149367</v>
       </c>
       <c r="O6" t="n">
-        <v>1.000865433174429</v>
+        <v>1.000865433866767</v>
       </c>
       <c r="P6" t="n">
-        <v>0.03180390282818502</v>
+        <v>0.03180391554958354</v>
       </c>
       <c r="Q6" t="n">
-        <v>135.9594282830009</v>
+        <v>135.9594266830217</v>
       </c>
       <c r="R6" t="n">
-        <v>210.3108535999611</v>
+        <v>210.3108519999819</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
@@ -855,52 +855,52 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.9999697973599359</v>
+        <v>0.9999697972869392</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7301639228031205</v>
+        <v>0.7301639218065108</v>
       </c>
       <c r="E7" t="n">
         <v>0.9999555048377992</v>
       </c>
       <c r="F7" t="n">
-        <v>0.99917236325319</v>
+        <v>0.9991723603756376</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9998998395590513</v>
+        <v>0.9998998393186842</v>
       </c>
       <c r="H7" t="n">
-        <v>2.106539217853381e-05</v>
+        <v>2.106544309132273e-05</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1882021829215318</v>
+        <v>0.1882021836166357</v>
       </c>
       <c r="J7" t="n">
         <v>4.077272125473196e-05</v>
       </c>
       <c r="K7" t="n">
-        <v>9.085270661137407e-05</v>
+        <v>9.085302249080114e-05</v>
       </c>
       <c r="L7" t="n">
-        <v>6.58131382469514e-05</v>
+        <v>6.581329618666493e-05</v>
       </c>
       <c r="M7" t="n">
-        <v>0.001501527059401792</v>
+        <v>0.001501501054347979</v>
       </c>
       <c r="N7" t="n">
-        <v>0.004589705020862866</v>
+        <v>0.004589710567271397</v>
       </c>
       <c r="O7" t="n">
-        <v>1.000014793129827</v>
+        <v>1.000014793165581</v>
       </c>
       <c r="P7" t="n">
-        <v>0.004785098265600174</v>
+        <v>0.004785104048130798</v>
       </c>
       <c r="Q7" t="n">
-        <v>167.5357580903281</v>
+        <v>167.5357532565489</v>
       </c>
       <c r="R7" t="n">
-        <v>256.5136933057067</v>
+        <v>256.5136884719275</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
@@ -918,52 +918,52 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.99965221458078</v>
+        <v>0.9996522114229269</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7171114178077148</v>
+        <v>0.7171114199037254</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9985142957716154</v>
+        <v>0.9985142884023077</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9997146429502345</v>
+        <v>0.9997146320896995</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9990261345135084</v>
+        <v>0.9990261256709577</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0002425693990419241</v>
+        <v>0.0002425716015452251</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1973058949167859</v>
+        <v>0.1973058934548843</v>
       </c>
       <c r="J8" t="n">
-        <v>0.001327362614163802</v>
+        <v>0.001327369198074265</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0001886961286427321</v>
+        <v>0.0001887033103153745</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0007580293714032669</v>
+        <v>0.0007580362541948199</v>
       </c>
       <c r="M8" t="n">
-        <v>0.004227001524555069</v>
+        <v>0.004227039160700775</v>
       </c>
       <c r="N8" t="n">
-        <v>0.01557463961194365</v>
+        <v>0.01557471031978525</v>
       </c>
       <c r="O8" t="n">
-        <v>1.000203581708812</v>
+        <v>1.000203583557311</v>
       </c>
       <c r="P8" t="n">
-        <v>0.01623768426417268</v>
+        <v>0.01623775798219348</v>
       </c>
       <c r="Q8" t="n">
-        <v>146.6484454138254</v>
+        <v>146.6484272541292</v>
       </c>
       <c r="R8" t="n">
-        <v>225.8753740302585</v>
+        <v>225.8753558705622</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
